--- a/translation.xlsx
+++ b/translation.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="app" sheetId="1" r:id="rId1"/>
+    <sheet name="other" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>EN</t>
   </si>
@@ -91,6 +91,57 @@
   </si>
   <si>
     <t>ARKEY5</t>
+  </si>
+  <si>
+    <t>EN OTHER 2</t>
+  </si>
+  <si>
+    <t>EN OTHER 3</t>
+  </si>
+  <si>
+    <t>EN OTHER 4</t>
+  </si>
+  <si>
+    <t>EN OTHER 5</t>
+  </si>
+  <si>
+    <t>ID OTHER 2</t>
+  </si>
+  <si>
+    <t>ID OTHER 3</t>
+  </si>
+  <si>
+    <t>ID OTHER 4</t>
+  </si>
+  <si>
+    <t>ID OTHER 5</t>
+  </si>
+  <si>
+    <t>AR OTHER 2</t>
+  </si>
+  <si>
+    <t>AR OTHER 3</t>
+  </si>
+  <si>
+    <t>AR OTHER 4</t>
+  </si>
+  <si>
+    <t>AR OTHER 5</t>
+  </si>
+  <si>
+    <t>OTHER1</t>
+  </si>
+  <si>
+    <t>OTHER2</t>
+  </si>
+  <si>
+    <t>OTHER3</t>
+  </si>
+  <si>
+    <t>OTHER4</t>
+  </si>
+  <si>
+    <t>OTHER5</t>
   </si>
 </sst>
 </file>
@@ -502,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,13 +666,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="4" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/translation.xlsx
+++ b/translation.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="20505" windowHeight="8730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="app" sheetId="1" r:id="rId1"/>
-    <sheet name="other" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="other" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>EN</t>
   </si>
@@ -27,140 +26,35 @@
     <t>AR</t>
   </si>
   <si>
-    <t>KEY1</t>
-  </si>
-  <si>
-    <t>KEY NAME</t>
-  </si>
-  <si>
-    <t>NAMA KUNCI</t>
-  </si>
-  <si>
-    <t>اسم المفتاح</t>
-  </si>
-  <si>
-    <t>KEY2</t>
-  </si>
-  <si>
-    <t>ENKEY2</t>
-  </si>
-  <si>
-    <t>IDKEY2</t>
-  </si>
-  <si>
-    <t>ARKEY2</t>
-  </si>
-  <si>
-    <t>KEY3</t>
-  </si>
-  <si>
-    <t>ENKEY3</t>
-  </si>
-  <si>
-    <t>IDKEY3</t>
-  </si>
-  <si>
-    <t>ARKEY3</t>
-  </si>
-  <si>
     <t>Languages</t>
   </si>
   <si>
     <t>Keys</t>
   </si>
   <si>
-    <t>KEY4</t>
-  </si>
-  <si>
-    <t>ENKEY4</t>
-  </si>
-  <si>
-    <t>KEY5</t>
-  </si>
-  <si>
-    <t>ENKEY5</t>
-  </si>
-  <si>
-    <t>IDKEY4</t>
-  </si>
-  <si>
-    <t>ARKEY4</t>
-  </si>
-  <si>
-    <t>IDKEY5</t>
-  </si>
-  <si>
-    <t>ARKEY5</t>
-  </si>
-  <si>
-    <t>EN OTHER 2</t>
-  </si>
-  <si>
-    <t>EN OTHER 3</t>
-  </si>
-  <si>
-    <t>EN OTHER 4</t>
-  </si>
-  <si>
-    <t>EN OTHER 5</t>
-  </si>
-  <si>
-    <t>ID OTHER 2</t>
-  </si>
-  <si>
-    <t>ID OTHER 3</t>
-  </si>
-  <si>
-    <t>ID OTHER 4</t>
-  </si>
-  <si>
-    <t>ID OTHER 5</t>
-  </si>
-  <si>
-    <t>AR OTHER 2</t>
-  </si>
-  <si>
-    <t>AR OTHER 3</t>
-  </si>
-  <si>
-    <t>AR OTHER 4</t>
-  </si>
-  <si>
-    <t>AR OTHER 5</t>
-  </si>
-  <si>
-    <t>OTHER1</t>
-  </si>
-  <si>
-    <t>OTHER2</t>
-  </si>
-  <si>
-    <t>OTHER3</t>
-  </si>
-  <si>
-    <t>OTHER4</t>
-  </si>
-  <si>
-    <t>OTHER5</t>
+    <t>APP.KEY1</t>
+  </si>
+  <si>
+    <t>APP.KEY2</t>
+  </si>
+  <si>
+    <t>TEST.KEY1</t>
+  </si>
+  <si>
+    <t>TEST.KEY2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -195,7 +89,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,27 +121,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -551,108 +446,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="B7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="28.28515625" customWidth="1"/>
+    <col min="1" max="4" width="28.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="1" t="str">
+        <f>CONCATENATE("APP.",B2,"-KEY-",1)</f>
+        <v>APP.EN-KEY-1</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:D3" si="0">CONCATENATE("APP.",C2,"-KEY-",1)</f>
+        <v>APP.ID-KEY-1</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>APP.AR-KEY-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="1" t="str">
+        <f>CONCATENATE("APP.",B2,"-KEY-",2)</f>
+        <v>APP.EN-KEY-2</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" ref="C4:D4" si="1">CONCATENATE("APP.",C2,"-KEY-",2)</f>
+        <v>APP.ID-KEY-2</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>APP.AR-KEY-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -666,109 +584,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="4" width="26.85546875" customWidth="1"/>
+    <col min="1" max="4" width="28.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>CONCATENATE("TEST.",B2,"-KEY-",1)</f>
+        <v>TEST.EN-KEY-1</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:D3" si="0">CONCATENATE("TEST.",C2,"-KEY-",1)</f>
+        <v>TEST.ID-KEY-1</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TEST.AR-KEY-1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>CONCATENATE("TEST.",B2,"-KEY-",2)</f>
+        <v>TEST.EN-KEY-2</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" ref="C4:D4" si="1">CONCATENATE("TEST.",C2,"-KEY-",2)</f>
+        <v>TEST.ID-KEY-2</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST.AR-KEY-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -776,18 +716,5 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>